--- a/Billing.xlsx
+++ b/Billing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teamtelstra-my.sharepoint.com/personal/adarsh_kulkarni_team_telstra_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d765255\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{144A6B1C-EA18-49DA-8D4A-919EC04111D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62B49348-F407-4D62-BD88-2887FB10EDDC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB92BB0-DD85-4F6B-9F7F-6C629F9F4491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{8F78A558-151D-4A04-A34B-00A13F9450A3}"/>
   </bookViews>
@@ -219,10 +219,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1849,7 +1845,7 @@
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G3:G5"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2056,9 +2052,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>5</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>73.91304347826086</v>
@@ -2142,10 +2136,7 @@
         <f>SUM(E3:E14)</f>
         <v>2</v>
       </c>
-      <c r="F15" s="1">
-        <f>SUM(F3:F14)</f>
-        <v>5</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1">
         <f>AVERAGE(G3:G14)</f>
         <v>92.982621243490826</v>
